--- a/регрессия.xlsx
+++ b/регрессия.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bondarenkovv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bondarenkovv\Desktop\Python\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE0A4D-C220-43C6-A2D3-A49DC1870D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0691A0A-9358-4CE6-83E5-5B737DAA3B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 парам" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Рост</t>
   </si>
@@ -49,12 +49,6 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">Линия </t>
-  </si>
-  <si>
-    <t>Разница</t>
-  </si>
-  <si>
     <t>Шаг</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>K--&gt;</t>
-  </si>
-  <si>
-    <t>&lt;--B</t>
   </si>
   <si>
     <t>B=</t>
@@ -245,6 +236,107 @@
   <si>
     <t>Зависимая перем</t>
   </si>
+  <si>
+    <t>Y^ Предсказание</t>
+  </si>
+  <si>
+    <t>Ошибка MSE</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>Коэф.Детерминации</t>
+  </si>
+  <si>
+    <r>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>​−Yсредн.)2​</t>
+    </r>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Средн.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оклонение от среднего X </t>
+  </si>
+  <si>
+    <t>Оклонение от среднего Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">∑1/n* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>​−Y^)2​</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +393,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="KaTeX_Size2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +439,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -357,11 +481,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,22 +552,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1407,6 +1584,60 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.9645549281571322E-2"/>
+                  <c:y val="-0.12455878360032582"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
@@ -3212,7 +3443,7 @@
   <dimension ref="O2:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3228,10 +3459,10 @@
   <sheetData>
     <row r="2" spans="15:25">
       <c r="P2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="15:25">
@@ -3247,7 +3478,7 @@
     </row>
     <row r="4" spans="15:25">
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -3256,18 +3487,18 @@
         <v>1</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U4" s="5"/>
       <c r="W4" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="15:25">
@@ -3907,7 +4138,7 @@
     </row>
     <row r="28" spans="15:25">
       <c r="V28" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W28" s="6">
         <f>SUM(W5:W25)</f>
@@ -3921,7 +4152,7 @@
     </row>
     <row r="32" spans="15:25">
       <c r="X32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y32" s="3">
         <f>W28/Y28</f>
@@ -3930,7 +4161,7 @@
     </row>
     <row r="33" spans="16:25">
       <c r="X33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y33" s="3">
         <f>R36-(Y32*P36)</f>
@@ -3939,13 +4170,13 @@
     </row>
     <row r="35" spans="16:25">
       <c r="P35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="16:25">
@@ -3971,33 +4202,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012F48E8-7BEE-40F6-B2FB-A48480D01D3A}">
-  <dimension ref="O3:Z36"/>
+  <dimension ref="O3:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="20" max="20" width="1.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" customWidth="1"/>
+    <col min="28" max="28" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:26">
+    <row r="3" spans="15:28">
       <c r="P3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="15:26">
+      <c r="R3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="15:28">
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>0</v>
@@ -4005,25 +4256,27 @@
       <c r="Q4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="5"/>
-      <c r="X4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="7"/>
+      <c r="R4" s="26"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="W4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="Z4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="15:26">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="15:28">
       <c r="O5" s="2">
         <v>1</v>
       </c>
@@ -4037,28 +4290,33 @@
         <f>P5*1.9182-267.75</f>
         <v>58.343999999999994</v>
       </c>
-      <c r="S5" s="8">
-        <f t="shared" ref="S5:S25" si="0">Q5-R5</f>
-        <v>-4.3439999999999941</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="T5" s="5">
         <f>P5-$P$36</f>
         <v>-10</v>
       </c>
-      <c r="V5" s="8">
+      <c r="U5" s="8">
         <f>Q5-$Q$36</f>
         <v>-23.523809523809518</v>
       </c>
-      <c r="X5" s="13">
-        <f>U5*V5</f>
+      <c r="W5" s="13">
+        <f>T5*U5</f>
         <v>235.23809523809518</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Y5" s="14">
         <f>(P5-$P$36)*(P5-$P$36)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="15:26">
+      <c r="Z5" s="18">
+        <f>(Q5-R5)*(Q5-R5)</f>
+        <v>18.870335999999948</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>(Q5-$Q$36)*(Q5-$Q$36)</f>
+        <v>553.36961451247134</v>
+      </c>
+      <c r="AB5" s="22"/>
+    </row>
+    <row r="6" spans="15:28">
       <c r="O6" s="2">
         <v>2</v>
       </c>
@@ -4069,31 +4327,36 @@
         <v>55</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" ref="R6:R25" si="1">P6*1.9182-267.75</f>
+        <f t="shared" ref="R6:R25" si="0">P6*1.9182-267.75</f>
         <v>60.262200000000007</v>
       </c>
-      <c r="S6" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.2622000000000071</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" ref="U6:U25" si="2">P6-$P$36</f>
+      <c r="T6" s="5">
+        <f>P6-$P$36</f>
         <v>-9</v>
       </c>
-      <c r="V6" s="8">
-        <f t="shared" ref="V6:V25" si="3">Q6-$Q$36</f>
+      <c r="U6" s="8">
+        <f>Q6-$Q$36</f>
         <v>-22.523809523809518</v>
       </c>
-      <c r="X6" s="13">
-        <f t="shared" ref="X6:X25" si="4">U6*V6</f>
+      <c r="W6" s="13">
+        <f t="shared" ref="W6:W25" si="1">T6*U6</f>
         <v>202.71428571428567</v>
       </c>
-      <c r="Z6" s="14">
-        <f t="shared" ref="Z6:Z25" si="5">(P6-$P$36)*(P6-$P$36)</f>
+      <c r="Y6" s="14">
+        <f>(P6-$P$36)*(P6-$P$36)</f>
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="15:26">
+      <c r="Z6" s="18">
+        <f t="shared" ref="Z6:Z25" si="2">(Q6-R6)*(Q6-R6)</f>
+        <v>27.690748840000076</v>
+      </c>
+      <c r="AA6" s="23">
+        <f t="shared" ref="AA6:AA25" si="3">(Q6-$Q$36)*(Q6-$Q$36)</f>
+        <v>507.32199546485236</v>
+      </c>
+      <c r="AB6" s="22"/>
+    </row>
+    <row r="7" spans="15:28">
       <c r="O7" s="2">
         <v>3</v>
       </c>
@@ -4104,31 +4367,36 @@
         <v>60</v>
       </c>
       <c r="R7" s="8">
+        <f t="shared" si="0"/>
+        <v>62.180399999999963</v>
+      </c>
+      <c r="T7" s="5">
+        <f>P7-$P$36</f>
+        <v>-8</v>
+      </c>
+      <c r="U7" s="8">
+        <f>Q7-$Q$36</f>
+        <v>-17.523809523809518</v>
+      </c>
+      <c r="W7" s="13">
         <f t="shared" si="1"/>
-        <v>62.180399999999963</v>
-      </c>
-      <c r="S7" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.1803999999999633</v>
-      </c>
-      <c r="U7" s="5">
+        <v>140.19047619047615</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>(P7-$P$36)*(P7-$P$36)</f>
+        <v>64</v>
+      </c>
+      <c r="Z7" s="18">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="V7" s="8">
+        <v>4.7541441599998402</v>
+      </c>
+      <c r="AA7" s="23">
         <f t="shared" si="3"/>
-        <v>-17.523809523809518</v>
-      </c>
-      <c r="X7" s="13">
-        <f t="shared" si="4"/>
-        <v>140.19047619047615</v>
-      </c>
-      <c r="Z7" s="14">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="15:26">
+        <v>307.08390022675718</v>
+      </c>
+      <c r="AB7" s="22"/>
+    </row>
+    <row r="8" spans="15:28">
       <c r="O8" s="2">
         <v>4</v>
       </c>
@@ -4139,31 +4407,36 @@
         <v>59</v>
       </c>
       <c r="R8" s="8">
+        <f t="shared" si="0"/>
+        <v>64.098599999999976</v>
+      </c>
+      <c r="T8" s="5">
+        <f>P8-$P$36</f>
+        <v>-7</v>
+      </c>
+      <c r="U8" s="8">
+        <f>Q8-$Q$36</f>
+        <v>-18.523809523809518</v>
+      </c>
+      <c r="W8" s="13">
         <f t="shared" si="1"/>
-        <v>64.098599999999976</v>
-      </c>
-      <c r="S8" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.0985999999999763</v>
-      </c>
-      <c r="U8" s="5">
+        <v>129.66666666666663</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>(P8-$P$36)*(P8-$P$36)</f>
+        <v>49</v>
+      </c>
+      <c r="Z8" s="18">
         <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="V8" s="8">
+        <v>25.995721959999759</v>
+      </c>
+      <c r="AA8" s="23">
         <f t="shared" si="3"/>
-        <v>-18.523809523809518</v>
-      </c>
-      <c r="X8" s="13">
-        <f t="shared" si="4"/>
-        <v>129.66666666666663</v>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="15:26">
+        <v>343.13151927437622</v>
+      </c>
+      <c r="AB8" s="22"/>
+    </row>
+    <row r="9" spans="15:28">
       <c r="O9" s="2">
         <v>5</v>
       </c>
@@ -4174,31 +4447,36 @@
         <v>68</v>
       </c>
       <c r="R9" s="8">
+        <f t="shared" si="0"/>
+        <v>66.016799999999989</v>
+      </c>
+      <c r="T9" s="5">
+        <f>P9-$P$36</f>
+        <v>-6</v>
+      </c>
+      <c r="U9" s="8">
+        <f>Q9-$Q$36</f>
+        <v>-9.5238095238095184</v>
+      </c>
+      <c r="W9" s="13">
         <f t="shared" si="1"/>
-        <v>66.016799999999989</v>
-      </c>
-      <c r="S9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9832000000000107</v>
-      </c>
-      <c r="U9" s="5">
+        <v>57.14285714285711</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>(P9-$P$36)*(P9-$P$36)</f>
+        <v>36</v>
+      </c>
+      <c r="Z9" s="18">
         <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="V9" s="8">
+        <v>3.9330822400000427</v>
+      </c>
+      <c r="AA9" s="23">
         <f t="shared" si="3"/>
-        <v>-9.5238095238095184</v>
-      </c>
-      <c r="X9" s="13">
-        <f t="shared" si="4"/>
-        <v>57.14285714285711</v>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="15:26">
+        <v>90.702947845804886</v>
+      </c>
+      <c r="AB9" s="22"/>
+    </row>
+    <row r="10" spans="15:28">
       <c r="O10" s="2">
         <v>6</v>
       </c>
@@ -4209,31 +4487,36 @@
         <v>70</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67.935000000000002</v>
       </c>
-      <c r="S10" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0649999999999977</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="T10" s="5">
+        <f>P10-$P$36</f>
+        <v>-5</v>
+      </c>
+      <c r="U10" s="8">
+        <f>Q10-$Q$36</f>
+        <v>-7.5238095238095184</v>
+      </c>
+      <c r="W10" s="13">
+        <f>T10*U10</f>
+        <v>37.619047619047592</v>
+      </c>
+      <c r="Y10" s="14">
+        <f>(P10-$P$36)*(P10-$P$36)</f>
+        <v>25</v>
+      </c>
+      <c r="Z10" s="18">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="V10" s="8">
+        <v>4.2642249999999908</v>
+      </c>
+      <c r="AA10" s="23">
         <f t="shared" si="3"/>
-        <v>-7.5238095238095184</v>
-      </c>
-      <c r="X10" s="13">
-        <f>U10*V10</f>
-        <v>37.619047619047592</v>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="15:26">
+        <v>56.607709750566812</v>
+      </c>
+      <c r="AB10" s="22"/>
+    </row>
+    <row r="11" spans="15:28">
       <c r="O11" s="2">
         <v>7</v>
       </c>
@@ -4244,31 +4527,36 @@
         <v>65</v>
       </c>
       <c r="R11" s="8">
+        <f t="shared" si="0"/>
+        <v>69.853199999999958</v>
+      </c>
+      <c r="T11" s="5">
+        <f>P11-$P$36</f>
+        <v>-4</v>
+      </c>
+      <c r="U11" s="8">
+        <f>Q11-$Q$36</f>
+        <v>-12.523809523809518</v>
+      </c>
+      <c r="W11" s="13">
         <f t="shared" si="1"/>
-        <v>69.853199999999958</v>
-      </c>
-      <c r="S11" s="8">
-        <f t="shared" si="0"/>
-        <v>-4.8531999999999584</v>
-      </c>
-      <c r="U11" s="5">
+        <v>50.095238095238074</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>(P11-$P$36)*(P11-$P$36)</f>
+        <v>16</v>
+      </c>
+      <c r="Z11" s="18">
         <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="V11" s="8">
+        <v>23.553550239999595</v>
+      </c>
+      <c r="AA11" s="24">
         <f t="shared" si="3"/>
-        <v>-12.523809523809518</v>
-      </c>
-      <c r="X11" s="13">
-        <f t="shared" si="4"/>
-        <v>50.095238095238074</v>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="15:26">
+        <v>156.845804988662</v>
+      </c>
+      <c r="AB11" s="22"/>
+    </row>
+    <row r="12" spans="15:28">
       <c r="O12" s="2">
         <v>8</v>
       </c>
@@ -4279,31 +4567,36 @@
         <v>78</v>
       </c>
       <c r="R12" s="8">
+        <f t="shared" si="0"/>
+        <v>71.771399999999971</v>
+      </c>
+      <c r="T12" s="5">
+        <f>P12-$P$36</f>
+        <v>-3</v>
+      </c>
+      <c r="U12" s="8">
+        <f>Q12-$Q$36</f>
+        <v>0.4761904761904816</v>
+      </c>
+      <c r="W12" s="13">
         <f t="shared" si="1"/>
-        <v>71.771399999999971</v>
-      </c>
-      <c r="S12" s="8">
-        <f t="shared" si="0"/>
-        <v>6.2286000000000286</v>
-      </c>
-      <c r="U12" s="5">
+        <v>-1.4285714285714448</v>
+      </c>
+      <c r="Y12" s="14">
+        <f>(P12-$P$36)*(P12-$P$36)</f>
+        <v>9</v>
+      </c>
+      <c r="Z12" s="18">
         <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="V12" s="8">
+        <v>38.795457960000356</v>
+      </c>
+      <c r="AA12" s="24">
         <f t="shared" si="3"/>
-        <v>0.4761904761904816</v>
-      </c>
-      <c r="X12" s="13">
-        <f t="shared" si="4"/>
-        <v>-1.4285714285714448</v>
-      </c>
-      <c r="Z12" s="14">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="15:26">
+        <v>0.22675736961451762</v>
+      </c>
+      <c r="AB12" s="22"/>
+    </row>
+    <row r="13" spans="15:28">
       <c r="O13" s="2">
         <v>9</v>
       </c>
@@ -4314,31 +4607,36 @@
         <v>82</v>
       </c>
       <c r="R13" s="8">
+        <f t="shared" si="0"/>
+        <v>73.689599999999984</v>
+      </c>
+      <c r="T13" s="5">
+        <f>P13-$P$36</f>
+        <v>-2</v>
+      </c>
+      <c r="U13" s="8">
+        <f>Q13-$Q$36</f>
+        <v>4.4761904761904816</v>
+      </c>
+      <c r="W13" s="13">
         <f t="shared" si="1"/>
-        <v>73.689599999999984</v>
-      </c>
-      <c r="S13" s="8">
-        <f t="shared" si="0"/>
-        <v>8.3104000000000156</v>
-      </c>
-      <c r="U13" s="5">
+        <v>-8.9523809523809632</v>
+      </c>
+      <c r="Y13" s="14">
+        <f>(P13-$P$36)*(P13-$P$36)</f>
+        <v>4</v>
+      </c>
+      <c r="Z13" s="18">
         <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="V13" s="8">
+        <v>69.062748160000254</v>
+      </c>
+      <c r="AA13" s="24">
         <f t="shared" si="3"/>
-        <v>4.4761904761904816</v>
-      </c>
-      <c r="X13" s="13">
-        <f t="shared" si="4"/>
-        <v>-8.9523809523809632</v>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="15:26">
+        <v>20.036281179138371</v>
+      </c>
+      <c r="AB13" s="22"/>
+    </row>
+    <row r="14" spans="15:28">
       <c r="O14" s="2">
         <v>10</v>
       </c>
@@ -4349,31 +4647,36 @@
         <v>83</v>
       </c>
       <c r="R14" s="8">
+        <f t="shared" si="0"/>
+        <v>75.607799999999997</v>
+      </c>
+      <c r="T14" s="5">
+        <f>P14-$P$36</f>
+        <v>-1</v>
+      </c>
+      <c r="U14" s="8">
+        <f>Q14-$Q$36</f>
+        <v>5.4761904761904816</v>
+      </c>
+      <c r="W14" s="13">
         <f t="shared" si="1"/>
-        <v>75.607799999999997</v>
-      </c>
-      <c r="S14" s="8">
-        <f t="shared" si="0"/>
-        <v>7.3922000000000025</v>
-      </c>
-      <c r="U14" s="5">
+        <v>-5.4761904761904816</v>
+      </c>
+      <c r="Y14" s="14">
+        <f>(P14-$P$36)*(P14-$P$36)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="18">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="V14" s="8">
+        <v>54.644620840000037</v>
+      </c>
+      <c r="AA14" s="24">
         <f t="shared" si="3"/>
-        <v>5.4761904761904816</v>
-      </c>
-      <c r="X14" s="13">
-        <f t="shared" si="4"/>
-        <v>-5.4761904761904816</v>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="15:26">
+        <v>29.988662131519334</v>
+      </c>
+      <c r="AB14" s="22"/>
+    </row>
+    <row r="15" spans="15:28">
       <c r="O15" s="2">
         <v>11</v>
       </c>
@@ -4384,31 +4687,36 @@
         <v>80</v>
       </c>
       <c r="R15" s="8">
+        <f t="shared" si="0"/>
+        <v>77.52600000000001</v>
+      </c>
+      <c r="T15" s="5">
+        <f>P15-$P$36</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <f>Q15-$Q$36</f>
+        <v>2.4761904761904816</v>
+      </c>
+      <c r="W15" s="13">
         <f t="shared" si="1"/>
-        <v>77.52600000000001</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="0"/>
-        <v>2.4739999999999895</v>
-      </c>
-      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f>(P15-$P$36)*(P15-$P$36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
+        <v>6.120675999999948</v>
+      </c>
+      <c r="AA15" s="23">
         <f t="shared" si="3"/>
-        <v>2.4761904761904816</v>
-      </c>
-      <c r="X15" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="15:26">
+        <v>6.1315192743764442</v>
+      </c>
+      <c r="AB15" s="22"/>
+    </row>
+    <row r="16" spans="15:28">
       <c r="O16" s="2">
         <v>12</v>
       </c>
@@ -4419,31 +4727,36 @@
         <v>82</v>
       </c>
       <c r="R16" s="8">
+        <f t="shared" si="0"/>
+        <v>79.444199999999967</v>
+      </c>
+      <c r="T16" s="5">
+        <f>P16-$P$36</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="8">
+        <f>Q16-$Q$36</f>
+        <v>4.4761904761904816</v>
+      </c>
+      <c r="W16" s="13">
         <f t="shared" si="1"/>
-        <v>79.444199999999967</v>
-      </c>
-      <c r="S16" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5558000000000334</v>
-      </c>
-      <c r="U16" s="5">
+        <v>4.4761904761904816</v>
+      </c>
+      <c r="Y16" s="14">
+        <f>(P16-$P$36)*(P16-$P$36)</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V16" s="8">
+        <v>6.5321136400001709</v>
+      </c>
+      <c r="AA16" s="23">
         <f t="shared" si="3"/>
-        <v>4.4761904761904816</v>
-      </c>
-      <c r="X16" s="13">
-        <f t="shared" si="4"/>
-        <v>4.4761904761904816</v>
-      </c>
-      <c r="Z16" s="14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="15:26">
+        <v>20.036281179138371</v>
+      </c>
+      <c r="AB16" s="22"/>
+    </row>
+    <row r="17" spans="15:28">
       <c r="O17" s="2">
         <v>13</v>
       </c>
@@ -4454,31 +4767,36 @@
         <v>81</v>
       </c>
       <c r="R17" s="8">
+        <f t="shared" si="0"/>
+        <v>81.36239999999998</v>
+      </c>
+      <c r="T17" s="5">
+        <f>P17-$P$36</f>
+        <v>2</v>
+      </c>
+      <c r="U17" s="8">
+        <f>Q17-$Q$36</f>
+        <v>3.4761904761904816</v>
+      </c>
+      <c r="W17" s="13">
         <f t="shared" si="1"/>
-        <v>81.36239999999998</v>
-      </c>
-      <c r="S17" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.36239999999997963</v>
-      </c>
-      <c r="U17" s="5">
+        <v>6.9523809523809632</v>
+      </c>
+      <c r="Y17" s="14">
+        <f>(P17-$P$36)*(P17-$P$36)</f>
+        <v>4</v>
+      </c>
+      <c r="Z17" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="V17" s="8">
+        <v>0.13133375999998523</v>
+      </c>
+      <c r="AA17" s="23">
         <f t="shared" si="3"/>
-        <v>3.4761904761904816</v>
-      </c>
-      <c r="X17" s="13">
-        <f t="shared" si="4"/>
-        <v>6.9523809523809632</v>
-      </c>
-      <c r="Z17" s="14">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="15:26">
+        <v>12.083900226757407</v>
+      </c>
+      <c r="AB17" s="22"/>
+    </row>
+    <row r="18" spans="15:28">
       <c r="O18" s="2">
         <v>14</v>
       </c>
@@ -4489,31 +4807,36 @@
         <v>85</v>
       </c>
       <c r="R18" s="8">
+        <f t="shared" si="0"/>
+        <v>83.280599999999993</v>
+      </c>
+      <c r="T18" s="5">
+        <f>P18-$P$36</f>
+        <v>3</v>
+      </c>
+      <c r="U18" s="8">
+        <f>Q18-$Q$36</f>
+        <v>7.4761904761904816</v>
+      </c>
+      <c r="W18" s="13">
         <f t="shared" si="1"/>
-        <v>83.280599999999993</v>
-      </c>
-      <c r="S18" s="8">
-        <f t="shared" si="0"/>
-        <v>1.7194000000000074</v>
-      </c>
-      <c r="U18" s="5">
+        <v>22.428571428571445</v>
+      </c>
+      <c r="Y18" s="14">
+        <f>(P18-$P$36)*(P18-$P$36)</f>
+        <v>9</v>
+      </c>
+      <c r="Z18" s="18">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="V18" s="8">
+        <v>2.9563363600000252</v>
+      </c>
+      <c r="AA18" s="23">
         <f t="shared" si="3"/>
-        <v>7.4761904761904816</v>
-      </c>
-      <c r="X18" s="13">
-        <f t="shared" si="4"/>
-        <v>22.428571428571445</v>
-      </c>
-      <c r="Z18" s="14">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="15:26">
+        <v>55.89342403628126</v>
+      </c>
+      <c r="AB18" s="22"/>
+    </row>
+    <row r="19" spans="15:28">
       <c r="O19" s="2">
         <v>15</v>
       </c>
@@ -4524,31 +4847,36 @@
         <v>90</v>
       </c>
       <c r="R19" s="8">
+        <f t="shared" si="0"/>
+        <v>85.198800000000006</v>
+      </c>
+      <c r="T19" s="5">
+        <f>P19-$P$36</f>
+        <v>4</v>
+      </c>
+      <c r="U19" s="8">
+        <f>Q19-$Q$36</f>
+        <v>12.476190476190482</v>
+      </c>
+      <c r="W19" s="13">
         <f t="shared" si="1"/>
-        <v>85.198800000000006</v>
-      </c>
-      <c r="S19" s="8">
-        <f t="shared" si="0"/>
-        <v>4.8011999999999944</v>
-      </c>
-      <c r="U19" s="5">
+        <v>49.904761904761926</v>
+      </c>
+      <c r="Y19" s="14">
+        <f>(P19-$P$36)*(P19-$P$36)</f>
+        <v>16</v>
+      </c>
+      <c r="Z19" s="18">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="V19" s="8">
+        <v>23.051521439999945</v>
+      </c>
+      <c r="AA19" s="23">
         <f t="shared" si="3"/>
-        <v>12.476190476190482</v>
-      </c>
-      <c r="X19" s="13">
-        <f t="shared" si="4"/>
-        <v>49.904761904761926</v>
-      </c>
-      <c r="Z19" s="14">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="15:26">
+        <v>155.65532879818608</v>
+      </c>
+      <c r="AB19" s="22"/>
+    </row>
+    <row r="20" spans="15:28">
       <c r="O20" s="2">
         <v>16</v>
       </c>
@@ -4559,31 +4887,36 @@
         <v>86</v>
       </c>
       <c r="R20" s="8">
+        <f t="shared" si="0"/>
+        <v>87.116999999999962</v>
+      </c>
+      <c r="T20" s="5">
+        <f>P20-$P$36</f>
+        <v>5</v>
+      </c>
+      <c r="U20" s="8">
+        <f>Q20-$Q$36</f>
+        <v>8.4761904761904816</v>
+      </c>
+      <c r="W20" s="13">
         <f t="shared" si="1"/>
-        <v>87.116999999999962</v>
-      </c>
-      <c r="S20" s="8">
-        <f t="shared" si="0"/>
-        <v>-1.1169999999999618</v>
-      </c>
-      <c r="U20" s="5">
+        <v>42.380952380952408</v>
+      </c>
+      <c r="Y20" s="14">
+        <f>(P20-$P$36)*(P20-$P$36)</f>
+        <v>25</v>
+      </c>
+      <c r="Z20" s="18">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="V20" s="8">
+        <v>1.2476889999999146</v>
+      </c>
+      <c r="AA20" s="23">
         <f t="shared" si="3"/>
-        <v>8.4761904761904816</v>
-      </c>
-      <c r="X20" s="13">
-        <f t="shared" si="4"/>
-        <v>42.380952380952408</v>
-      </c>
-      <c r="Z20" s="14">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="15:26">
+        <v>71.845804988662223</v>
+      </c>
+      <c r="AB20" s="22"/>
+    </row>
+    <row r="21" spans="15:28">
       <c r="O21" s="2">
         <v>17</v>
       </c>
@@ -4594,31 +4927,36 @@
         <v>88</v>
       </c>
       <c r="R21" s="8">
+        <f t="shared" si="0"/>
+        <v>89.035199999999975</v>
+      </c>
+      <c r="T21" s="5">
+        <f>P21-$P$36</f>
+        <v>6</v>
+      </c>
+      <c r="U21" s="8">
+        <f>Q21-$Q$36</f>
+        <v>10.476190476190482</v>
+      </c>
+      <c r="W21" s="13">
         <f t="shared" si="1"/>
-        <v>89.035199999999975</v>
-      </c>
-      <c r="S21" s="8">
-        <f t="shared" si="0"/>
-        <v>-1.0351999999999748</v>
-      </c>
-      <c r="U21" s="5">
+        <v>62.85714285714289</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>(P21-$P$36)*(P21-$P$36)</f>
+        <v>36</v>
+      </c>
+      <c r="Z21" s="18">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="V21" s="8">
+        <v>1.0716390399999478</v>
+      </c>
+      <c r="AA21" s="23">
         <f t="shared" si="3"/>
-        <v>10.476190476190482</v>
-      </c>
-      <c r="X21" s="13">
-        <f t="shared" si="4"/>
-        <v>62.85714285714289</v>
-      </c>
-      <c r="Z21" s="14">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="15:26">
+        <v>109.75056689342415</v>
+      </c>
+      <c r="AB21" s="22"/>
+    </row>
+    <row r="22" spans="15:28">
       <c r="O22" s="2">
         <v>18</v>
       </c>
@@ -4629,31 +4967,36 @@
         <v>88</v>
       </c>
       <c r="R22" s="8">
+        <f t="shared" si="0"/>
+        <v>90.953399999999988</v>
+      </c>
+      <c r="T22" s="5">
+        <f>P22-$P$36</f>
+        <v>7</v>
+      </c>
+      <c r="U22" s="8">
+        <f>Q22-$Q$36</f>
+        <v>10.476190476190482</v>
+      </c>
+      <c r="W22" s="13">
         <f t="shared" si="1"/>
-        <v>90.953399999999988</v>
-      </c>
-      <c r="S22" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.9533999999999878</v>
-      </c>
-      <c r="U22" s="5">
+        <v>73.333333333333371</v>
+      </c>
+      <c r="Y22" s="14">
+        <f>(P22-$P$36)*(P22-$P$36)</f>
+        <v>49</v>
+      </c>
+      <c r="Z22" s="18">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="V22" s="8">
+        <v>8.7225715599999276</v>
+      </c>
+      <c r="AA22" s="23">
         <f t="shared" si="3"/>
-        <v>10.476190476190482</v>
-      </c>
-      <c r="X22" s="13">
-        <f t="shared" si="4"/>
-        <v>73.333333333333371</v>
-      </c>
-      <c r="Z22" s="14">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="15:26">
+        <v>109.75056689342415</v>
+      </c>
+      <c r="AB22" s="22"/>
+    </row>
+    <row r="23" spans="15:28">
       <c r="O23" s="2">
         <v>19</v>
       </c>
@@ -4664,31 +5007,36 @@
         <v>89</v>
       </c>
       <c r="R23" s="8">
+        <f t="shared" si="0"/>
+        <v>92.871600000000001</v>
+      </c>
+      <c r="T23" s="5">
+        <f>P23-$P$36</f>
+        <v>8</v>
+      </c>
+      <c r="U23" s="8">
+        <f>Q23-$Q$36</f>
+        <v>11.476190476190482</v>
+      </c>
+      <c r="W23" s="13">
         <f t="shared" si="1"/>
-        <v>92.871600000000001</v>
-      </c>
-      <c r="S23" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.8716000000000008</v>
-      </c>
-      <c r="U23" s="5">
+        <v>91.809523809523853</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>(P23-$P$36)*(P23-$P$36)</f>
+        <v>64</v>
+      </c>
+      <c r="Z23" s="18">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="V23" s="8">
+        <v>14.989286560000007</v>
+      </c>
+      <c r="AA23" s="23">
         <f t="shared" si="3"/>
-        <v>11.476190476190482</v>
-      </c>
-      <c r="X23" s="13">
-        <f t="shared" si="4"/>
-        <v>91.809523809523853</v>
-      </c>
-      <c r="Z23" s="14">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="15:26">
+        <v>131.70294784580511</v>
+      </c>
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" spans="15:28">
       <c r="O24" s="2">
         <v>20</v>
       </c>
@@ -4699,31 +5047,36 @@
         <v>91</v>
       </c>
       <c r="R24" s="8">
+        <f t="shared" si="0"/>
+        <v>94.789799999999957</v>
+      </c>
+      <c r="T24" s="5">
+        <f>P24-$P$36</f>
+        <v>9</v>
+      </c>
+      <c r="U24" s="8">
+        <f>Q24-$Q$36</f>
+        <v>13.476190476190482</v>
+      </c>
+      <c r="W24" s="13">
         <f t="shared" si="1"/>
-        <v>94.789799999999957</v>
-      </c>
-      <c r="S24" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.789799999999957</v>
-      </c>
-      <c r="U24" s="5">
+        <v>121.28571428571433</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>(P24-$P$36)*(P24-$P$36)</f>
+        <v>81</v>
+      </c>
+      <c r="Z24" s="18">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="V24" s="8">
+        <v>14.362584039999675</v>
+      </c>
+      <c r="AA24" s="23">
         <f t="shared" si="3"/>
-        <v>13.476190476190482</v>
-      </c>
-      <c r="X24" s="13">
-        <f t="shared" si="4"/>
-        <v>121.28571428571433</v>
-      </c>
-      <c r="Z24" s="14">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="15:26">
+        <v>181.60770975056704</v>
+      </c>
+      <c r="AB24" s="22"/>
+    </row>
+    <row r="25" spans="15:28">
       <c r="O25" s="2">
         <v>21</v>
       </c>
@@ -4734,82 +5087,120 @@
         <v>94</v>
       </c>
       <c r="R25" s="8">
+        <f t="shared" si="0"/>
+        <v>96.70799999999997</v>
+      </c>
+      <c r="T25" s="5">
+        <f>P25-$P$36</f>
+        <v>10</v>
+      </c>
+      <c r="U25" s="8">
+        <f>Q25-$Q$36</f>
+        <v>16.476190476190482</v>
+      </c>
+      <c r="W25" s="13">
         <f t="shared" si="1"/>
-        <v>96.70799999999997</v>
-      </c>
-      <c r="S25" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.70799999999997</v>
-      </c>
-      <c r="U25" s="5">
+        <v>164.76190476190482</v>
+      </c>
+      <c r="Y25" s="14">
+        <f>(P25-$P$36)*(P25-$P$36)</f>
+        <v>100</v>
+      </c>
+      <c r="Z25" s="18">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="V25" s="8">
+        <v>7.3332639999998372</v>
+      </c>
+      <c r="AA25" s="23">
         <f t="shared" si="3"/>
-        <v>16.476190476190482</v>
-      </c>
-      <c r="X25" s="13">
-        <f t="shared" si="4"/>
-        <v>164.76190476190482</v>
-      </c>
-      <c r="Z25" s="14">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="15:26">
-      <c r="P27" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>271.46485260770993</v>
+      </c>
+      <c r="AB25" s="22"/>
+    </row>
+    <row r="26" spans="15:28">
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB26" s="22"/>
+    </row>
+    <row r="27" spans="15:28">
+      <c r="P27" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="29">
         <f t="array" ref="Q27:R31">LINEST(Q5:Q25,P5:P25,1,1)</f>
         <v>1.9181818181818182</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="28">
         <v>-267.74891774891773</v>
       </c>
-      <c r="S27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="15:26">
+      <c r="Z27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="22"/>
+    </row>
+    <row r="28" spans="15:28">
       <c r="Q28">
         <v>0.15644800231646958</v>
       </c>
       <c r="R28">
         <v>28.176570430045224</v>
       </c>
-      <c r="W28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="X28" s="17">
-        <f>SUM(X5:X25)</f>
+      <c r="V28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="17">
+        <f>SUM(W5:W25)</f>
         <v>1476.9999999999998</v>
       </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6">
-        <f>SUM(Z5:Z25)</f>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6">
+        <f>SUM(Y5:Y25)</f>
         <v>770</v>
       </c>
-    </row>
-    <row r="29" spans="15:26">
+      <c r="Z28" s="19">
+        <f>AVERAGE(Z5:Z25)</f>
+        <v>17.051602419047576</v>
+      </c>
+      <c r="AB28" s="22"/>
+    </row>
+    <row r="29" spans="15:28">
       <c r="Q29">
         <v>0.88779165355356104</v>
       </c>
       <c r="R29">
         <v>4.3412558805243027</v>
       </c>
-    </row>
-    <row r="30" spans="15:26">
+      <c r="Z29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB29" s="22"/>
+    </row>
+    <row r="30" spans="15:28">
       <c r="Q30">
         <v>150.32786732642379</v>
       </c>
       <c r="R30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="15:26">
+      <c r="Z30" s="25">
+        <f>SUM(Z5:Z25)</f>
+        <v>358.08365079999913</v>
+      </c>
+      <c r="AA30" s="25">
+        <f>SUM(AA5:AA25)</f>
+        <v>3191.238095238095</v>
+      </c>
+      <c r="AB30" s="20">
+        <f t="shared" ref="AB30" si="4">1-(Z30/AA30)</f>
+        <v>0.88779162189924821</v>
+      </c>
+    </row>
+    <row r="31" spans="15:28">
       <c r="Q31">
         <v>2833.1545454545449</v>
       </c>
@@ -4817,33 +5208,33 @@
         <v>358.08354978354987</v>
       </c>
     </row>
-    <row r="32" spans="15:26">
-      <c r="Y32" t="s">
+    <row r="32" spans="15:28">
+      <c r="X32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="3">
+        <f>W28/Y28</f>
+        <v>1.918181818181818</v>
+      </c>
+    </row>
+    <row r="33" spans="16:25">
+      <c r="X33" t="s">
         <v>8</v>
       </c>
-      <c r="Z32" s="3">
-        <f>X28/Z28</f>
-        <v>1.918181818181818</v>
-      </c>
-    </row>
-    <row r="33" spans="16:26">
-      <c r="Y33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="3">
-        <f>Q36-(Z32*P36)</f>
+      <c r="Y33" s="3">
+        <f>Q36-(Y32*P36)</f>
         <v>-267.74891774891773</v>
       </c>
     </row>
-    <row r="35" spans="16:26">
+    <row r="35" spans="16:25">
       <c r="P35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="16:26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="16:25">
       <c r="P36" s="3">
         <f>AVERAGE(P5:P25)</f>
         <v>180</v>
@@ -4854,11 +5245,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S5:S25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="4">
+    <mergeCell ref="AB4:AB29"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
